--- a/excel-sheet-sample/lessons.xlsx
+++ b/excel-sheet-sample/lessons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -34,10 +34,10 @@
     <t>sig</t>
   </si>
   <si>
-    <t>احمد</t>
-  </si>
-  <si>
-    <t>الشهيد3</t>
+    <t>احمد rrrr</t>
+  </si>
+  <si>
+    <t>الفاتح</t>
   </si>
   <si>
     <t>true</t>
@@ -46,10 +46,16 @@
     <t>dina</t>
   </si>
   <si>
-    <t>test</t>
+    <t>omar tt</t>
+  </si>
+  <si>
+    <t>الشهيد1</t>
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>eret2</t>
   </si>
 </sst>
 </file>
@@ -99,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -108,6 +114,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -418,18 +430,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="14.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -457,7 +469,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3">
-        <v>23424234234</v>
+        <v>45756855454</v>
       </c>
       <c r="C2" s="3">
         <v>13</v>
@@ -472,23 +484,43 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
-        <v>23333333333</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="5">
+        <v>11236547895</v>
+      </c>
+      <c r="C3" s="5">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <v>32456789765</v>
+      </c>
+      <c r="C4" s="3">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
